--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -47,7 +47,7 @@
     <t>Weekly rate in $</t>
   </si>
   <si>
-    <t>Geetha</t>
+    <t>geetha</t>
   </si>
   <si>
     <t>Gopinath</t>
@@ -161,25 +161,25 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>48.0</v>
+        <v>45.0</v>
       </c>
       <c r="C2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F2" t="n">
         <v>7.5</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7.0</v>
-      </c>
       <c r="G2" t="n">
         <v>8.0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="I2" t="n">
         <v>8.0</v>
@@ -188,7 +188,7 @@
         <v>52.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2532.0</v>
+        <v>2373.0</v>
       </c>
     </row>
     <row r="3">
@@ -196,7 +196,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
@@ -205,25 +205,25 @@
         <v>8.0</v>
       </c>
       <c r="E3" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" t="n">
         <v>8.0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="H3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="I3" t="n">
         <v>7.0</v>
       </c>
       <c r="J3" t="n">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="K3" t="n">
-        <v>2604.0</v>
+        <v>2450.0</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -50,7 +50,7 @@
     <t>geetha</t>
   </si>
   <si>
-    <t>Gopinath</t>
+    <t>Sanjay</t>
   </si>
 </sst>
 </file>
@@ -164,31 +164,31 @@
         <v>45.0</v>
       </c>
       <c r="C2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I2" t="n">
         <v>6.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8.0</v>
-      </c>
       <c r="J2" t="n">
-        <v>52.5</v>
+        <v>51.0</v>
       </c>
       <c r="K2" t="n">
-        <v>2373.0</v>
+        <v>2305.0</v>
       </c>
     </row>
     <row r="3">
@@ -196,13 +196,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.0</v>
+        <v>6.5</v>
       </c>
       <c r="E3" t="n">
         <v>7.0</v>
@@ -220,10 +220,10 @@
         <v>7.0</v>
       </c>
       <c r="J3" t="n">
-        <v>53.0</v>
+        <v>50.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2450.0</v>
+        <v>1776.0</v>
       </c>
     </row>
   </sheetData>
